--- a/InputData.xlsx
+++ b/InputData.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nisarg\UiPath MVP\Incubate India\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Guptajiii\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693A0CB7-EFFB-4335-9B71-BDDFA98BE5E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{FCF4A4AD-D001-4EF7-A437-DB0D7386C7C4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="55">
   <si>
     <t>FirstName</t>
   </si>
@@ -196,12 +195,15 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -557,11 +559,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8497D16B-A06C-49BD-A8D8-9DAECEC23E16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,6 +623,9 @@
       <c r="G2">
         <v>10</v>
       </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -644,6 +649,9 @@
       <c r="G3">
         <v>7</v>
       </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -667,6 +675,9 @@
       <c r="G4">
         <v>3</v>
       </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -690,6 +701,9 @@
       <c r="G5">
         <v>9</v>
       </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -713,6 +727,9 @@
       <c r="G6">
         <v>6</v>
       </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -736,6 +753,9 @@
       <c r="G7">
         <v>10</v>
       </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -759,6 +779,9 @@
       <c r="G8">
         <v>7</v>
       </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -782,6 +805,9 @@
       <c r="G9">
         <v>10</v>
       </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -805,6 +831,9 @@
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -828,21 +857,24 @@
       <c r="G11">
         <v>5</v>
       </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" tooltip="Maharashtra" display="https://en.wikipedia.org/wiki/Maharashtra" xr:uid="{24990E61-2C12-4178-B285-433341B6722A}"/>
-    <hyperlink ref="F2" r:id="rId2" xr:uid="{D3667FDD-63DB-4154-B6CF-4A8747195FFA}"/>
-    <hyperlink ref="D3" r:id="rId3" display="https://en.wikipedia.org/wiki/Gujarat" xr:uid="{54FABE8A-0ABD-458B-966F-D52A90AD339D}"/>
-    <hyperlink ref="F3" r:id="rId4" xr:uid="{5757F5E5-432C-48BA-A1F2-F7EB5817A9B6}"/>
-    <hyperlink ref="F4" r:id="rId5" xr:uid="{EC26A077-1DD0-4D49-A05B-547010506102}"/>
-    <hyperlink ref="F5" r:id="rId6" xr:uid="{D346C880-9976-4C95-822D-3D740D39CDBD}"/>
-    <hyperlink ref="F6" r:id="rId7" xr:uid="{B69C262E-9E77-4ED3-AF7D-F89294490B01}"/>
-    <hyperlink ref="F7" r:id="rId8" xr:uid="{F6D0CFDE-C3E6-4C96-8BBF-84F75C9BA5CF}"/>
-    <hyperlink ref="F8" r:id="rId9" xr:uid="{492363AF-4437-4153-93F9-0A6766118F8C}"/>
-    <hyperlink ref="F9" r:id="rId10" xr:uid="{A0BEAEB4-D63C-4F98-AB70-B7A1C4636480}"/>
-    <hyperlink ref="F10" r:id="rId11" xr:uid="{D33B90C3-8277-49F7-9B5E-968D0484CA47}"/>
-    <hyperlink ref="F11" r:id="rId12" xr:uid="{F753A304-9035-446F-A489-A4F3114E5B14}"/>
+    <hyperlink ref="D2" r:id="rId1" tooltip="Maharashtra" display="https://en.wikipedia.org/wiki/Maharashtra"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3" display="https://en.wikipedia.org/wiki/Gujarat"/>
+    <hyperlink ref="F3" r:id="rId4"/>
+    <hyperlink ref="F4" r:id="rId5"/>
+    <hyperlink ref="F5" r:id="rId6"/>
+    <hyperlink ref="F6" r:id="rId7"/>
+    <hyperlink ref="F7" r:id="rId8"/>
+    <hyperlink ref="F8" r:id="rId9"/>
+    <hyperlink ref="F9" r:id="rId10"/>
+    <hyperlink ref="F10" r:id="rId11"/>
+    <hyperlink ref="F11" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
